--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azirq\Documents\PythonProjects\GenshinTeamDPSCalculator_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azirq\Documents\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EABC2-43BC-4F07-96DF-E573E5BCACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B61866-4972-4101-BC17-D5B9CE4A38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2940" windowWidth="25710" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="1335" windowWidth="24240" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗莎莉亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,14 @@
   </si>
   <si>
     <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,6 +172,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,38 +533,38 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -566,200 +573,205 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="F14:Q14"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="E12:L12"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="E13:L13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azirq\Documents\PythonProjects\GenshinTeamDPSCalculator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B61866-4972-4101-BC17-D5B9CE4A38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F86D7-4EC2-4605-97CC-6A25623F0B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1335" windowWidth="24240" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -177,9 +183,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,15 +480,18 @@
     <col min="1" max="2" width="11.375" style="2" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="12.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.625" style="2" customWidth="1"/>
-    <col min="14" max="16" width="9.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="16" width="12.625" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -495,112 +510,123 @@
       <c r="F1" s="2">
         <v>6</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
         <v>8</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>9</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>9.5</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="5">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="K1" s="2">
+      <c r="N1" s="2">
         <v>13.5</v>
       </c>
-      <c r="L1" s="2">
+      <c r="O1" s="2">
         <v>15.5</v>
       </c>
-      <c r="M1" s="2">
+      <c r="P1" s="2">
         <v>17</v>
       </c>
-      <c r="N1" s="2">
+      <c r="Q1" s="2">
         <v>18</v>
       </c>
-      <c r="O1" s="2">
+      <c r="R1" s="2">
         <v>19</v>
       </c>
-      <c r="P1" s="2">
+      <c r="S1" s="2">
         <v>20</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="T1" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -610,168 +636,212 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="F16:T16"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="E14:O14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F86D7-4EC2-4605-97CC-6A25623F0B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B69310E-FCB6-42BC-A410-7DCE5D6B13A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,40 +553,40 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -610,7 +606,7 @@
       <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -685,163 +681,158 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="F16:T16"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="E14:O14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="E13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FC149-D3D5-4A2E-98C1-633C1B9ADBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5792A-FFFD-4F00-B1E2-E9F38F2DF3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="6030" windowWidth="23595" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="3045" windowWidth="23595" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>增益效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,10 +139,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,7 +426,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M9"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,20 +479,20 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -505,69 +501,69 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
       <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -577,81 +573,81 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5792A-FFFD-4F00-B1E2-E9F38F2DF3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5750A20-F777-485E-9225-15F49DD43D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="3045" windowWidth="23595" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27825" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="雷单" sheetId="3" r:id="rId1"/>
+    <sheet name="雷班" sheetId="1" r:id="rId2"/>
+    <sheet name="班单" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +82,17 @@
   <si>
     <t>weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班尼特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班尼特</t>
   </si>
 </sst>
 </file>
@@ -131,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,7 +152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC09C76-576F-4A97-956C-0CEF94215141}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,20 +491,20 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -575,83 +587,361 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="C10:N10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.5</v>
+      </c>
+      <c r="F1">
+        <v>4.5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>6.5</v>
+      </c>
+      <c r="J1">
+        <v>7.5</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>9.5</v>
+      </c>
+      <c r="N1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B7:N7"/>
     <mergeCell ref="B8:N8"/>
@@ -661,4 +951,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6596CA0C-017F-4D46-A5A3-EA5119E8EECA}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.5</v>
+      </c>
+      <c r="F1">
+        <v>4.5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>6.5</v>
+      </c>
+      <c r="J1">
+        <v>7.5</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>9.5</v>
+      </c>
+      <c r="N1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5750A20-F777-485E-9225-15F49DD43D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E43BA8-B3B9-4FD5-BB88-7F7586490AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27825" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27825" yWindow="2895" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="雷单" sheetId="3" r:id="rId1"/>
-    <sheet name="雷班" sheetId="1" r:id="rId2"/>
-    <sheet name="班单" sheetId="5" r:id="rId3"/>
+    <sheet name="雷班" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,7 +90,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班尼特</t>
+    <t>q（超载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e（绽放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a（超绽放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -434,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC09C76-576F-4A97-956C-0CEF94215141}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -554,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -563,247 +570,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="C10:N10"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>3.5</v>
-      </c>
-      <c r="F1">
-        <v>4.5</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>6.5</v>
-      </c>
-      <c r="J1">
-        <v>7.5</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>9.5</v>
-      </c>
-      <c r="N1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -951,193 +718,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6596CA0C-017F-4D46-A5A3-EA5119E8EECA}">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>3.5</v>
-      </c>
-      <c r="F1">
-        <v>4.5</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>6.5</v>
-      </c>
-      <c r="J1">
-        <v>7.5</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>9.5</v>
-      </c>
-      <c r="N1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E43BA8-B3B9-4FD5-BB88-7F7586490AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A36F5-F23F-4047-A3C5-9ED48CE25763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27825" yWindow="2895" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22470" yWindow="3105" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="雷班" sheetId="1" r:id="rId1"/>
+    <sheet name="雷单" sheetId="2" r:id="rId1"/>
+    <sheet name="雷班" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,11 +442,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA4CCF-3262-4ABC-8595-5D97648387C0}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.5</v>
+      </c>
+      <c r="F1">
+        <v>4.5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>6.5</v>
+      </c>
+      <c r="J1">
+        <v>7.5</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>9.5</v>
+      </c>
+      <c r="N1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="C10:N10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/skills.xlsx
+++ b/data/skills.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\GenshinTeamDPSCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A36F5-F23F-4047-A3C5-9ED48CE25763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE270B3E-8901-4F2B-9151-F6371ED94E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22470" yWindow="3105" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25995" yWindow="2685" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="雷单" sheetId="2" r:id="rId1"/>
     <sheet name="雷班" sheetId="1" r:id="rId2"/>
+    <sheet name="神单" sheetId="4" r:id="rId3"/>
+    <sheet name="神班" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +102,21 @@
   </si>
   <si>
     <t>a（超绽放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神里</t>
+  </si>
+  <si>
+    <t>artifact{0,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA4CCF-3262-4ABC-8595-5D97648387C0}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,6 +694,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -684,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,4 +976,491 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7980D2-97F6-46EC-9B3D-B894E368011A}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.5</v>
+      </c>
+      <c r="F1">
+        <v>4.5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>6.5</v>
+      </c>
+      <c r="J1">
+        <v>7.5</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>9.5</v>
+      </c>
+      <c r="N1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D0F677-C1CC-4841-A637-707183EECF26}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.5</v>
+      </c>
+      <c r="F1">
+        <v>4.5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>6.5</v>
+      </c>
+      <c r="J1">
+        <v>7.5</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>9.5</v>
+      </c>
+      <c r="N1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>